--- a/08 - Regression/08-SimpleLinearRegression.xlsx
+++ b/08 - Regression/08-SimpleLinearRegression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\Mai\Teaching\Courses\LM7204-BizForecasting\Excel-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\08 - Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A813342A-A7C0-436B-8C40-F5A84F415213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="4"/>
+    <workbookView xWindow="5595" yWindow="1605" windowWidth="22920" windowHeight="12855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inclass" sheetId="5" r:id="rId1"/>
@@ -54,10 +55,19 @@
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -243,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -428,18 +438,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -791,37 +801,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.8</c:v>
+                  <c:v>5.0004660265308658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>5.5005538836418344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1999999999999993</c:v>
+                  <c:v>6.000641740752803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8999999999999995</c:v>
+                  <c:v>6.5007295978637707</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6</c:v>
+                  <c:v>7.0008174549747393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>7.5009053120857079</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>8.0009931691966756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>8.5010810263076451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.399999999999999</c:v>
+                  <c:v>9.0011688834186128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.1</c:v>
+                  <c:v>9.5012567405295805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.799999999999999</c:v>
+                  <c:v>10.00134459764055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,7 +1768,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1793,7 +1809,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2073,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2539,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3219,11 +3241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3232,22 +3254,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3566,7 +3588,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="8">
-        <v>2</v>
+        <v>3.0001145980869923</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3574,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="8">
-        <v>0.7</v>
+        <v>0.50008785711096837</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3600,11 +3622,11 @@
       </c>
       <c r="D19" s="8">
         <f>$D$16+$D$17*B19</f>
-        <v>4.8</v>
+        <v>5.0004660265308658</v>
       </c>
       <c r="E19" s="8">
         <f>C19-D19</f>
-        <v>-0.54</v>
+        <v>-0.74046602653086602</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -3616,11 +3638,11 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" ref="D20:D29" si="0">$D$16+$D$17*B20</f>
-        <v>5.5</v>
+        <v>5.5005538836418344</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" ref="E20:E29" si="1">C20-D20</f>
-        <v>0.17999999999999972</v>
+        <v>0.17944611635816532</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -3632,11 +3654,11 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
-        <v>6.1999999999999993</v>
+        <v>6.000641740752803</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="1"/>
-        <v>1.0400000000000009</v>
+        <v>1.2393582592471972</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -3648,11 +3670,11 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>6.8999999999999995</v>
+        <v>6.5007295978637707</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0799999999999992</v>
+        <v>-1.6807295978637704</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -3664,11 +3686,11 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.0008174549747393</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="1"/>
-        <v>-0.64999999999999947</v>
+        <v>-5.0817454974739107E-2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -3680,11 +3702,11 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>7.5009053120857079</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
-        <v>0.50999999999999979</v>
+        <v>1.3090946879142926</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -3696,11 +3718,11 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8.0009931691966756</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
-        <v>-0.96000000000000085</v>
+        <v>3.9006830803323567E-2</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -3712,11 +3734,11 @@
       </c>
       <c r="D26" s="8">
         <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>8.5010810263076451</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.3699999999999992</v>
+        <v>-0.17108102630764499</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -3728,11 +3750,11 @@
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
-        <v>10.399999999999999</v>
+        <v>9.0011688834186128</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="1"/>
-        <v>0.44000000000000128</v>
+        <v>1.8388311165813871</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -3744,11 +3766,11 @@
       </c>
       <c r="D28" s="8">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>9.5012567405295805</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5199999999999996</v>
+        <v>-1.9212567405295804</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -3760,11 +3782,11 @@
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
-        <v>11.799999999999999</v>
+        <v>10.00134459764055</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8399999999999981</v>
+        <v>-4.1344597640549097E-2</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -3773,7 +3795,7 @@
       </c>
       <c r="E31" s="8">
         <f>SUMSQ(E19:E29)</f>
-        <v>25.18269999999999</v>
+        <v>13.762690001181674</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -3807,7 +3829,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B19:D29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:D29">
     <sortCondition ref="B18"/>
   </sortState>
   <mergeCells count="4">
@@ -3823,10 +3845,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3855,15 +3877,15 @@
       <c r="B2">
         <v>372</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21">
+      <c r="C2" s="17"/>
+      <c r="D2" s="19">
         <f t="array" ref="D2:E6">LINEST(B2:B9,A2:A9,TRUE,TRUE)</f>
         <v>0.67342529005368501</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>37.021855765170756</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3872,14 +3894,14 @@
       <c r="B3">
         <v>275</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22">
+      <c r="C3" s="17"/>
+      <c r="D3" s="20">
         <v>8.412928924398666E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>20.863406462083638</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3888,14 +3910,14 @@
       <c r="B4">
         <v>214</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="23">
+      <c r="C4" s="17"/>
+      <c r="D4" s="21">
         <v>0.9143766936828791</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>32.721413545161688</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3904,14 +3926,14 @@
       <c r="B5">
         <v>135</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="23">
+      <c r="C5" s="17"/>
+      <c r="D5" s="21">
         <v>64.074378788620365</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>6</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3920,10 +3942,10 @@
       <c r="B6">
         <v>81</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>68603.854573639052</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>6424.1454263609457</v>
       </c>
     </row>
@@ -3957,6 +3979,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6D9EDA35E42B4B8BA68358CD6B4667" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2d3313f571f159a984235e0da85421">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d47f257c-f9b4-4a78-89eb-782bf7388d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fa7c12d726f85c4b96a9ad3b163f70" ns2:_="">
     <xsd:import namespace="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
@@ -4088,29 +4125,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D56B3E3-4FC4-417E-A945-3DF04B8862F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E21EE5F-9284-4FF1-A2A8-C05D6611437D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA999A92-4A2B-441E-A4CB-CD3E57B6DFDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA999A92-4A2B-441E-A4CB-CD3E57B6DFDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E21EE5F-9284-4FF1-A2A8-C05D6611437D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D56B3E3-4FC4-417E-A945-3DF04B8862F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>